--- a/Excel_Read_Write/TestData.xlsx
+++ b/Excel_Read_Write/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61661DCD-E62D-4848-8FFF-FFC573AC5784}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F1E9FE-97E7-4267-AC18-E42AF09F6735}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="0" windowWidth="17304" windowHeight="12360" firstSheet="3" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,10 +16,12 @@
     <sheet name="TestData" sheetId="6" r:id="rId6"/>
     <sheet name="Data1" sheetId="7" r:id="rId7"/>
     <sheet name="Data2" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="FinalTest" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="109">
   <si>
     <t>Test Connection</t>
   </si>
@@ -281,9 +283,6 @@
     <t>bb</t>
   </si>
   <si>
-    <t>cc</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -342,12 +341,28 @@
   </si>
   <si>
     <t>Test19</t>
+  </si>
+  <si>
+    <t>Hello I am test</t>
+  </si>
+  <si>
+    <t>Uname1</t>
+  </si>
+  <si>
+    <t>Pwd1</t>
+  </si>
+  <si>
+    <t>Uname2</t>
+  </si>
+  <si>
+    <t>Pwd2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -699,8 +714,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="7.77734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -734,6 +749,46 @@
       </c>
       <c r="D3" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D68182C5-DB2F-4428-A603-53DBE8C9DFA8}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="false"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -749,8 +804,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="15.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="15.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -954,11 +1009,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="8.77734375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="7.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.88671875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="8.77734375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="7.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -1199,7 +1254,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -1344,8 +1399,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.6640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -1388,7 +1443,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="16384" style="6" width="8.88671875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -1410,7 +1465,7 @@
         <v>83</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1423,7 +1478,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C1AF19-0490-43FD-A793-E4E287E35820}">
   <dimension ref="A1:A20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A20"/>
     </sheetView>
   </sheetViews>
@@ -1431,106 +1486,118 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E240F2DE-FA2B-4D49-B3A8-AD27F9853565}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>